--- a/testdata/uidata/耳鼻喉测试相关.xlsx
+++ b/testdata/uidata/耳鼻喉测试相关.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20359"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\kuaishang_auto\testdata\uidata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B9F0AB-0A70-4578-812B-A1CE3B26C1AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22365" windowHeight="9420" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="项目列表" sheetId="2" r:id="rId1"/>
@@ -17,21 +23,21 @@
     <sheet name="Sheet1" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Sheet1!$A$1:$C$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">单句识别!$A$1:$B$264</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">评测集!$A$1:$D$21</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Sheet1!$A$1:$C$12</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>zhup</author>
   </authors>
   <commentList>
-    <comment ref="B8" authorId="0">
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -54,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B11" authorId="0">
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -76,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B25" authorId="0">
+    <comment ref="B25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -98,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B26" authorId="0">
+    <comment ref="B26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -110,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B27" authorId="0">
+    <comment ref="B27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -132,7 +138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B82" authorId="0">
+    <comment ref="B82" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
         <r>
           <rPr>
@@ -154,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B130" authorId="0">
+    <comment ref="B130" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
       <text>
         <r>
           <rPr>
@@ -176,7 +182,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B147" authorId="0">
+    <comment ref="B147" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
       <text>
         <r>
           <rPr>
@@ -198,7 +204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B148" authorId="0">
+    <comment ref="B148" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
       <text>
         <r>
           <rPr>
@@ -220,7 +226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B149" authorId="0">
+    <comment ref="B149" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -243,7 +249,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B169" authorId="0">
+    <comment ref="B169" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -265,7 +271,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B181" authorId="0">
+    <comment ref="B181" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -287,7 +293,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B190" authorId="0">
+    <comment ref="B190" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -309,7 +315,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B205" authorId="0">
+    <comment ref="B205" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -331,7 +337,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B216" authorId="0">
+    <comment ref="B216" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -353,7 +359,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B218" authorId="0">
+    <comment ref="B218" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000010000000}">
       <text>
         <r>
           <rPr>
@@ -375,7 +381,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B232" authorId="0">
+    <comment ref="B232" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000011000000}">
       <text>
         <r>
           <rPr>
@@ -398,7 +404,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B235" authorId="0">
+    <comment ref="B235" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000012000000}">
       <text>
         <r>
           <rPr>
@@ -425,7 +431,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="596">
   <si>
     <t>项目列表</t>
   </si>
@@ -2185,155 +2191,163 @@
     <t>鼻镜</t>
   </si>
   <si>
-    <t>top1</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
+    <t>SERVER</t>
+  </si>
+  <si>
+    <t>您好，有什么问题可以帮您的</t>
+  </si>
+  <si>
+    <t>CLIENT</t>
+  </si>
+  <si>
+    <t>您好</t>
+  </si>
+  <si>
+    <t>我想咨询一下神经性耳鸣的治疗</t>
+  </si>
+  <si>
+    <t>是你本人的情况吗？</t>
+  </si>
+  <si>
+    <t>恩，是的</t>
+  </si>
+  <si>
+    <t>请问你的年龄？性别是？什么时候确诊的？</t>
+  </si>
+  <si>
+    <t>女性，35岁</t>
+  </si>
+  <si>
+    <t>应该是23岁的时候吧</t>
+  </si>
+  <si>
+    <t>之前吃过很多的中药，效果不好</t>
+  </si>
+  <si>
+    <t>神经性耳鸣的情况比较复杂，那你目前最近一次检查是在什么时间？</t>
+  </si>
+  <si>
+    <t>也针灸过，好多一段时间，后来又复发了</t>
+  </si>
+  <si>
+    <t>你有微信吗？</t>
+  </si>
+  <si>
+    <t>有的</t>
+  </si>
+  <si>
+    <t>之前的医生都告诉我耳鸣不好治疗</t>
+  </si>
+  <si>
+    <t>你的微信是多少？我加下你，咱们微信聊，网络不稳定可能会随时掉线</t>
+  </si>
+  <si>
+    <t>不知道你们这种专科医院针对耳鸣有没有什么好的方法</t>
+  </si>
+  <si>
+    <t>好的，我加你微信下，同意下就可以了</t>
+  </si>
+  <si>
+    <t>耳鸣_1</t>
+  </si>
+  <si>
+    <t>OVER</t>
+  </si>
+  <si>
+    <t>这里是成都仁品耳鼻喉专科医院预约挂号平台，我是顾医生，可以致电：19983156972，或添加微信：19983156972，咨询预约</t>
+  </si>
+  <si>
+    <t>我耳朵里一直不停的响是怎么回事啊</t>
+  </si>
+  <si>
+    <t>多大年龄</t>
+  </si>
+  <si>
+    <t>耳鸣多久了</t>
+  </si>
+  <si>
+    <t>有3天了</t>
+  </si>
+  <si>
+    <t>一直都有响声</t>
+  </si>
+  <si>
+    <t>引发耳鸣的原因很多，往往是考虑耳部本身疾病，比如中耳炎，鼓膜穿孔还有就是长期或者突然的噪音刺激</t>
+  </si>
+  <si>
+    <t>以前有过吗</t>
+  </si>
+  <si>
+    <t>没有过</t>
+  </si>
+  <si>
+    <t>如果你只是偶尔一两下会出现耳鸣，这种情况是生理性的，没有多大问题，环境的改变，休息不好是会引起的，但是如果是持续性的或者连着都发生耳鸣次数比较频繁，这种就要考虑是某些疾病导致的耳鸣，需要及时检查明确，然后治疗的.</t>
+  </si>
+  <si>
+    <t>这几天就没停过</t>
+  </si>
+  <si>
+    <t>主要是耳鸣时间长了对身体是会影响的，首先影响你的睡眠，睡眠不好也会导致身体内分泌的紊乱等，影响情绪出现焦虑狂躁抑郁等，并且长期的耳鸣容易引起听力下降</t>
+  </si>
+  <si>
+    <t>您有微信吗？我加你微信先把相关治疗发给你看下，你先了解下，给您些建议</t>
+  </si>
+  <si>
+    <t>我还是去医院检查一下吧</t>
+  </si>
+  <si>
+    <t>可以，我们明天元旦最后一天，卫生局援助基金，耳鼻喉检查只需要48元，专家挂号费也可减免</t>
+  </si>
+  <si>
+    <t>你是在哪里的</t>
+  </si>
+  <si>
+    <t>谢谢你了</t>
+  </si>
+  <si>
+    <t>再见</t>
+  </si>
+  <si>
+    <t>耳鸣_2</t>
+  </si>
+  <si>
+    <t>流鼻血</t>
+  </si>
+  <si>
+    <t>喉镜检查</t>
+  </si>
+  <si>
+    <t>对话</t>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentence</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>您好</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>type</t>
-  </si>
-  <si>
-    <t>SERVER</t>
-  </si>
-  <si>
-    <t>您好，有什么问题可以帮您的</t>
-  </si>
-  <si>
-    <t>CLIENT</t>
-  </si>
-  <si>
-    <t>您好</t>
-  </si>
-  <si>
-    <t>我想咨询一下神经性耳鸣的治疗</t>
-  </si>
-  <si>
-    <t>是你本人的情况吗？</t>
-  </si>
-  <si>
-    <t>恩，是的</t>
-  </si>
-  <si>
-    <t>请问你的年龄？性别是？什么时候确诊的？</t>
-  </si>
-  <si>
-    <t>女性，35岁</t>
-  </si>
-  <si>
-    <t>应该是23岁的时候吧</t>
-  </si>
-  <si>
-    <t>之前吃过很多的中药，效果不好</t>
-  </si>
-  <si>
-    <t>神经性耳鸣的情况比较复杂，那你目前最近一次检查是在什么时间？</t>
-  </si>
-  <si>
-    <t>也针灸过，好多一段时间，后来又复发了</t>
-  </si>
-  <si>
-    <t>你有微信吗？</t>
-  </si>
-  <si>
-    <t>有的</t>
-  </si>
-  <si>
-    <t>之前的医生都告诉我耳鸣不好治疗</t>
-  </si>
-  <si>
-    <t>你的微信是多少？我加下你，咱们微信聊，网络不稳定可能会随时掉线</t>
-  </si>
-  <si>
-    <t>不知道你们这种专科医院针对耳鸣有没有什么好的方法</t>
-  </si>
-  <si>
-    <t>好的，我加你微信下，同意下就可以了</t>
-  </si>
-  <si>
-    <t>耳鸣_1</t>
-  </si>
-  <si>
-    <t>OVER</t>
-  </si>
-  <si>
-    <t>这里是成都仁品耳鼻喉专科医院预约挂号平台，我是顾医生，可以致电：19983156972，或添加微信：19983156972，咨询预约</t>
-  </si>
-  <si>
-    <t>我耳朵里一直不停的响是怎么回事啊</t>
-  </si>
-  <si>
-    <t>多大年龄</t>
-  </si>
-  <si>
-    <t>耳鸣多久了</t>
-  </si>
-  <si>
-    <t>有3天了</t>
-  </si>
-  <si>
-    <t>一直都有响声</t>
-  </si>
-  <si>
-    <t>引发耳鸣的原因很多，往往是考虑耳部本身疾病，比如中耳炎，鼓膜穿孔还有就是长期或者突然的噪音刺激</t>
-  </si>
-  <si>
-    <t>以前有过吗</t>
-  </si>
-  <si>
-    <t>没有过</t>
-  </si>
-  <si>
-    <t>如果你只是偶尔一两下会出现耳鸣，这种情况是生理性的，没有多大问题，环境的改变，休息不好是会引起的，但是如果是持续性的或者连着都发生耳鸣次数比较频繁，这种就要考虑是某些疾病导致的耳鸣，需要及时检查明确，然后治疗的.</t>
-  </si>
-  <si>
-    <t>这几天就没停过</t>
-  </si>
-  <si>
-    <t>主要是耳鸣时间长了对身体是会影响的，首先影响你的睡眠，睡眠不好也会导致身体内分泌的紊乱等，影响情绪出现焦虑狂躁抑郁等，并且长期的耳鸣容易引起听力下降</t>
-  </si>
-  <si>
-    <t>您有微信吗？我加你微信先把相关治疗发给你看下，你先了解下，给您些建议</t>
-  </si>
-  <si>
-    <t>我还是去医院检查一下吧</t>
-  </si>
-  <si>
-    <t>可以，我们明天元旦最后一天，卫生局援助基金，耳鼻喉检查只需要48元，专家挂号费也可减免</t>
-  </si>
-  <si>
-    <t>你是在哪里的</t>
-  </si>
-  <si>
-    <t>谢谢你了</t>
-  </si>
-  <si>
-    <t>再见</t>
-  </si>
-  <si>
-    <t>耳鸣_2</t>
-  </si>
-  <si>
-    <t>流鼻血</t>
-  </si>
-  <si>
-    <t>喉镜检查</t>
-  </si>
-  <si>
-    <t>对话</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>##</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2363,150 +2377,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2517,8 +2387,22 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2533,192 +2417,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2726,253 +2430,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3041,59 +2503,80 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3105,13 +2588,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00FFFF00"/>
-      <color rgb="00FF0000"/>
+      <color rgb="FFFFFF00"/>
+      <color rgb="FFFF0000"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3369,351 +2855,349 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="31.3333333333333" style="18" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="31.375" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" spans="1:3">
+    <row r="1" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="18"/>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="21" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="22" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="21" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="23" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="23" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="21" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="21" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="21" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="21" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="21" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="21" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="A42" sqref="A$1:A$1048576"/>
+      <selection pane="bottomLeft" activeCell="A42" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.6666666666667" style="12" customWidth="1"/>
-    <col min="2" max="6" width="36.7777777777778" style="19" customWidth="1"/>
-    <col min="7" max="16384" width="8.87962962962963" style="19"/>
+    <col min="1" max="1" width="17.625" style="12" customWidth="1"/>
+    <col min="2" max="6" width="36.75" style="19" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" s="18" customFormat="1" spans="1:6">
+    <row r="1" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -3733,7 +3217,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" ht="276" spans="1:6">
+    <row r="2" spans="1:6" ht="242.25" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
@@ -3753,7 +3237,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" ht="345" spans="1:6">
+    <row r="3" spans="1:6" ht="327.75" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>5</v>
       </c>
@@ -3770,12 +3254,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" ht="193.2" spans="1:6">
+    <row r="5" spans="1:6" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>7</v>
       </c>
@@ -3795,7 +3279,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" ht="317.4" spans="1:6">
+    <row r="6" spans="1:6" ht="313.5" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>8</v>
       </c>
@@ -3815,17 +3299,17 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" ht="331.2" spans="1:6">
+    <row r="9" spans="1:6" ht="327.75" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>11</v>
       </c>
@@ -3845,12 +3329,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" ht="234.6" spans="1:6">
+    <row r="11" spans="1:6" ht="242.25" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>13</v>
       </c>
@@ -3870,7 +3354,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" ht="262.2" spans="1:6">
+    <row r="12" spans="1:6" ht="256.5" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>14</v>
       </c>
@@ -3890,12 +3374,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" ht="372.6" spans="1:6">
+    <row r="14" spans="1:6" ht="342" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>18</v>
       </c>
@@ -3915,7 +3399,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" ht="345" spans="1:6">
+    <row r="15" spans="1:6" ht="356.25" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>19</v>
       </c>
@@ -3935,7 +3419,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" ht="409.5" spans="1:6">
+    <row r="16" spans="1:6" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>20</v>
       </c>
@@ -3955,7 +3439,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" ht="193.2" spans="1:6">
+    <row r="17" spans="1:6" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>21</v>
       </c>
@@ -3975,7 +3459,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" ht="304.2" spans="1:6">
+    <row r="18" spans="1:6" ht="299.25" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
         <v>22</v>
       </c>
@@ -3995,7 +3479,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="19" ht="234.6" spans="1:6">
+    <row r="19" spans="1:6" ht="242.25" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>23</v>
       </c>
@@ -4015,7 +3499,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="20" ht="318" spans="1:6">
+    <row r="20" spans="1:6" ht="313.5" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
         <v>24</v>
       </c>
@@ -4035,7 +3519,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" ht="303.6" spans="1:6">
+    <row r="21" spans="1:6" ht="299.25" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
         <v>25</v>
       </c>
@@ -4055,7 +3539,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="22" ht="234.6" spans="1:6">
+    <row r="22" spans="1:6" ht="228" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>26</v>
       </c>
@@ -4072,7 +3556,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="23" ht="207" spans="1:6">
+    <row r="23" spans="1:6" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
         <v>27</v>
       </c>
@@ -4092,7 +3576,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="24" ht="96.6" spans="1:6">
+    <row r="24" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
         <v>28</v>
       </c>
@@ -4106,12 +3590,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" ht="276" spans="1:6">
+    <row r="26" spans="1:6" ht="256.5" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
         <v>30</v>
       </c>
@@ -4131,12 +3615,12 @@
         <v>155</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" ht="409.5" spans="1:6">
+    <row r="28" spans="1:6" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>33</v>
       </c>
@@ -4156,12 +3640,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" ht="124.2" spans="1:6">
+    <row r="30" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
         <v>35</v>
       </c>
@@ -4181,7 +3665,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="31" ht="248.4" spans="1:6">
+    <row r="31" spans="1:6" ht="242.25" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
         <v>36</v>
       </c>
@@ -4201,17 +3685,17 @@
         <v>170</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34" ht="262.2" spans="1:6">
+    <row r="34" spans="1:6" ht="256.5" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
         <v>39</v>
       </c>
@@ -4231,12 +3715,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="36" ht="262.2" spans="1:6">
+    <row r="36" spans="1:6" ht="256.5" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
         <v>41</v>
       </c>
@@ -4256,7 +3740,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="37" ht="151.8" spans="1:6">
+    <row r="37" spans="1:6" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
         <v>42</v>
       </c>
@@ -4276,7 +3760,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="38" ht="331.2" spans="1:6">
+    <row r="38" spans="1:6" ht="313.5" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
         <v>43</v>
       </c>
@@ -4296,7 +3780,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="39" ht="55.2" spans="1:6">
+    <row r="39" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
         <v>44</v>
       </c>
@@ -4310,7 +3794,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="40" ht="138" spans="1:6">
+    <row r="40" spans="1:6" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
         <v>45</v>
       </c>
@@ -4324,7 +3808,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="41" ht="317.4" spans="1:6">
+    <row r="41" spans="1:6" ht="327.75" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
         <v>46</v>
       </c>
@@ -4344,7 +3828,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="42" ht="303.6" spans="1:6">
+    <row r="42" spans="1:6" ht="299.25" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
         <v>47</v>
       </c>
@@ -4364,22 +3848,22 @@
         <v>206</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="46" ht="289.8" spans="1:6">
+    <row r="46" spans="1:6" ht="270.75" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
         <v>51</v>
       </c>
@@ -4399,12 +3883,12 @@
         <v>211</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="48" ht="110.4" spans="1:6">
+    <row r="48" spans="1:6" ht="114" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
         <v>54</v>
       </c>
@@ -4412,7 +3896,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="49" ht="41.4" spans="1:6">
+    <row r="49" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
         <v>55</v>
       </c>
@@ -4420,12 +3904,12 @@
         <v>213</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="51" ht="41.4" spans="1:6">
+    <row r="51" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="s">
         <v>57</v>
       </c>
@@ -4433,7 +3917,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="12" t="s">
         <v>58</v>
       </c>
@@ -4441,7 +3925,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="53" ht="124.2" spans="1:6">
+    <row r="53" spans="1:6" ht="114" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
         <v>59</v>
       </c>
@@ -4450,27 +3934,26 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.7777777777778" defaultRowHeight="13.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="20.7777777777778" style="9"/>
+    <col min="1" max="16384" width="20.75" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" spans="1:3">
+    <row r="1" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>217</v>
       </c>
@@ -4481,7 +3964,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -4489,17 +3972,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
@@ -4507,17 +3990,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="12" t="s">
         <v>9</v>
       </c>
@@ -4525,29 +4008,29 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="13"/>
       <c r="C9" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="13"/>
       <c r="C10" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>16</v>
       </c>
@@ -4555,7 +4038,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" s="12" t="s">
         <v>18</v>
       </c>
@@ -4563,7 +4046,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" s="12" t="s">
         <v>20</v>
       </c>
@@ -4571,53 +4054,53 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="2:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" s="13"/>
       <c r="C16" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B17" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B18" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B19" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B20" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B21" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B22" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B24" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
         <v>31</v>
       </c>
@@ -4625,93 +4108,93 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="12"/>
       <c r="B26" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="28" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
       <c r="B32" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="17"/>
-    </row>
-    <row r="33" spans="2:2">
+      <c r="C32" s="28"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B33" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B34" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B35" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B36" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B37" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B38" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B39" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B40" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
         <v>49</v>
       </c>
@@ -4719,7 +4202,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="15"/>
       <c r="B42" s="12" t="s">
         <v>51</v>
@@ -4728,7 +4211,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>53</v>
       </c>
@@ -4736,27 +4219,27 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B44" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B45" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="2:2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B46" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B47" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B48" s="9" t="s">
         <v>59</v>
       </c>
@@ -4765,27 +4248,26 @@
   <mergeCells count="1">
     <mergeCell ref="C31:C32"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B264"/>
   <sheetViews>
     <sheetView topLeftCell="A160" workbookViewId="0">
       <selection activeCell="A165" sqref="A165"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="60.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="60.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>220</v>
       </c>
@@ -4793,7 +4275,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>222</v>
       </c>
@@ -4801,7 +4283,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>223</v>
       </c>
@@ -4809,7 +4291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>224</v>
       </c>
@@ -4817,7 +4299,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>225</v>
       </c>
@@ -4825,7 +4307,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>226</v>
       </c>
@@ -4833,7 +4315,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>227</v>
       </c>
@@ -4841,7 +4323,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>228</v>
       </c>
@@ -4849,7 +4331,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>230</v>
       </c>
@@ -4857,7 +4339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>231</v>
       </c>
@@ -4865,7 +4347,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>232</v>
       </c>
@@ -4873,7 +4355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>233</v>
       </c>
@@ -4881,7 +4363,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>234</v>
       </c>
@@ -4889,7 +4371,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>235</v>
       </c>
@@ -4897,7 +4379,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>236</v>
       </c>
@@ -4905,7 +4387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>237</v>
       </c>
@@ -4913,7 +4395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>238</v>
       </c>
@@ -4921,7 +4403,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>239</v>
       </c>
@@ -4929,7 +4411,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>240</v>
       </c>
@@ -4937,7 +4419,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>241</v>
       </c>
@@ -4945,7 +4427,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>242</v>
       </c>
@@ -4953,7 +4435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>243</v>
       </c>
@@ -4961,7 +4443,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>244</v>
       </c>
@@ -4969,7 +4451,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>245</v>
       </c>
@@ -4977,7 +4459,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>247</v>
       </c>
@@ -4985,7 +4467,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>248</v>
       </c>
@@ -4993,7 +4475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>249</v>
       </c>
@@ -5001,7 +4483,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>251</v>
       </c>
@@ -5009,7 +4491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>252</v>
       </c>
@@ -5017,7 +4499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>253</v>
       </c>
@@ -5025,7 +4507,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>254</v>
       </c>
@@ -5033,7 +4515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>13</v>
       </c>
@@ -5041,7 +4523,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>255</v>
       </c>
@@ -5049,7 +4531,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>256</v>
       </c>
@@ -5057,7 +4539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>257</v>
       </c>
@@ -5065,7 +4547,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>258</v>
       </c>
@@ -5073,7 +4555,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>259</v>
       </c>
@@ -5081,7 +4563,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>260</v>
       </c>
@@ -5089,7 +4571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>261</v>
       </c>
@@ -5097,7 +4579,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>262</v>
       </c>
@@ -5105,7 +4587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>263</v>
       </c>
@@ -5113,7 +4595,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>264</v>
       </c>
@@ -5121,7 +4603,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>265</v>
       </c>
@@ -5129,7 +4611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>266</v>
       </c>
@@ -5137,7 +4619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>267</v>
       </c>
@@ -5145,7 +4627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>268</v>
       </c>
@@ -5153,7 +4635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>269</v>
       </c>
@@ -5161,7 +4643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>270</v>
       </c>
@@ -5169,7 +4651,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>271</v>
       </c>
@@ -5177,7 +4659,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>272</v>
       </c>
@@ -5185,7 +4667,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>273</v>
       </c>
@@ -5193,7 +4675,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>275</v>
       </c>
@@ -5201,7 +4683,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>276</v>
       </c>
@@ -5209,7 +4691,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>277</v>
       </c>
@@ -5217,7 +4699,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>278</v>
       </c>
@@ -5225,7 +4707,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>279</v>
       </c>
@@ -5233,7 +4715,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>280</v>
       </c>
@@ -5241,7 +4723,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>281</v>
       </c>
@@ -5249,7 +4731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>282</v>
       </c>
@@ -5257,7 +4739,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="60" ht="27.6" spans="1:2">
+    <row r="60" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>283</v>
       </c>
@@ -5265,7 +4747,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>284</v>
       </c>
@@ -5273,7 +4755,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>285</v>
       </c>
@@ -5281,7 +4763,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>286</v>
       </c>
@@ -5289,7 +4771,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>287</v>
       </c>
@@ -5297,7 +4779,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>288</v>
       </c>
@@ -5305,7 +4787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>289</v>
       </c>
@@ -5313,7 +4795,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>290</v>
       </c>
@@ -5321,7 +4803,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>291</v>
       </c>
@@ -5329,7 +4811,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>292</v>
       </c>
@@ -5337,7 +4819,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>293</v>
       </c>
@@ -5345,7 +4827,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>294</v>
       </c>
@@ -5353,7 +4835,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>296</v>
       </c>
@@ -5361,7 +4843,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>297</v>
       </c>
@@ -5369,7 +4851,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>298</v>
       </c>
@@ -5377,7 +4859,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>299</v>
       </c>
@@ -5385,7 +4867,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>300</v>
       </c>
@@ -5393,7 +4875,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>301</v>
       </c>
@@ -5401,7 +4883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>302</v>
       </c>
@@ -5409,7 +4891,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>304</v>
       </c>
@@ -5417,7 +4899,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>305</v>
       </c>
@@ -5425,7 +4907,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>306</v>
       </c>
@@ -5433,7 +4915,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>307</v>
       </c>
@@ -5441,7 +4923,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>308</v>
       </c>
@@ -5449,7 +4931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>309</v>
       </c>
@@ -5457,7 +4939,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>310</v>
       </c>
@@ -5465,7 +4947,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>311</v>
       </c>
@@ -5473,7 +4955,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>312</v>
       </c>
@@ -5481,7 +4963,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>313</v>
       </c>
@@ -5489,7 +4971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>314</v>
       </c>
@@ -5497,7 +4979,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>315</v>
       </c>
@@ -5505,7 +4987,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>316</v>
       </c>
@@ -5513,7 +4995,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>317</v>
       </c>
@@ -5521,7 +5003,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>318</v>
       </c>
@@ -5529,7 +5011,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>319</v>
       </c>
@@ -5537,7 +5019,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>320</v>
       </c>
@@ -5545,7 +5027,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>321</v>
       </c>
@@ -5553,7 +5035,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>322</v>
       </c>
@@ -5561,7 +5043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>323</v>
       </c>
@@ -5569,7 +5051,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>324</v>
       </c>
@@ -5577,7 +5059,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>325</v>
       </c>
@@ -5585,7 +5067,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>326</v>
       </c>
@@ -5593,7 +5075,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" ht="69" spans="1:2">
+    <row r="102" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
         <v>327</v>
       </c>
@@ -5601,7 +5083,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>328</v>
       </c>
@@ -5609,7 +5091,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>329</v>
       </c>
@@ -5617,7 +5099,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>330</v>
       </c>
@@ -5625,7 +5107,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>331</v>
       </c>
@@ -5633,7 +5115,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>332</v>
       </c>
@@ -5641,7 +5123,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>333</v>
       </c>
@@ -5649,7 +5131,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>334</v>
       </c>
@@ -5657,7 +5139,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>335</v>
       </c>
@@ -5665,7 +5147,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>336</v>
       </c>
@@ -5673,7 +5155,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>337</v>
       </c>
@@ -5681,7 +5163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>338</v>
       </c>
@@ -5689,7 +5171,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>339</v>
       </c>
@@ -5697,7 +5179,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>340</v>
       </c>
@@ -5705,7 +5187,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>341</v>
       </c>
@@ -5713,7 +5195,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>342</v>
       </c>
@@ -5721,7 +5203,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>343</v>
       </c>
@@ -5729,7 +5211,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>344</v>
       </c>
@@ -5737,7 +5219,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>345</v>
       </c>
@@ -5745,7 +5227,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>346</v>
       </c>
@@ -5753,7 +5235,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>347</v>
       </c>
@@ -5761,7 +5243,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>348</v>
       </c>
@@ -5769,7 +5251,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>349</v>
       </c>
@@ -5777,7 +5259,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>350</v>
       </c>
@@ -5785,7 +5267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>351</v>
       </c>
@@ -5793,7 +5275,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>353</v>
       </c>
@@ -5801,7 +5283,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>354</v>
       </c>
@@ -5809,7 +5291,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>355</v>
       </c>
@@ -5817,7 +5299,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>356</v>
       </c>
@@ -5825,7 +5307,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>357</v>
       </c>
@@ -5833,7 +5315,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>358</v>
       </c>
@@ -5841,7 +5323,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>359</v>
       </c>
@@ -5849,7 +5331,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>360</v>
       </c>
@@ -5857,7 +5339,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>361</v>
       </c>
@@ -5865,7 +5347,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>362</v>
       </c>
@@ -5873,7 +5355,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>363</v>
       </c>
@@ -5881,7 +5363,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>364</v>
       </c>
@@ -5889,7 +5371,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>3</v>
       </c>
@@ -5897,7 +5379,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>365</v>
       </c>
@@ -5905,7 +5387,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>366</v>
       </c>
@@ -5913,7 +5395,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>367</v>
       </c>
@@ -5921,7 +5403,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>368</v>
       </c>
@@ -5929,7 +5411,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>369</v>
       </c>
@@ -5937,7 +5419,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>370</v>
       </c>
@@ -5945,7 +5427,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>371</v>
       </c>
@@ -5953,7 +5435,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>372</v>
       </c>
@@ -5961,7 +5443,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>373</v>
       </c>
@@ -5969,7 +5451,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>374</v>
       </c>
@@ -5977,7 +5459,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>375</v>
       </c>
@@ -5985,7 +5467,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>376</v>
       </c>
@@ -5993,7 +5475,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>377</v>
       </c>
@@ -6001,7 +5483,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>378</v>
       </c>
@@ -6009,7 +5491,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>379</v>
       </c>
@@ -6017,7 +5499,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>380</v>
       </c>
@@ -6025,7 +5507,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>381</v>
       </c>
@@ -6033,7 +5515,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>382</v>
       </c>
@@ -6041,7 +5523,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>383</v>
       </c>
@@ -6049,7 +5531,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>385</v>
       </c>
@@ -6057,7 +5539,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>386</v>
       </c>
@@ -6065,7 +5547,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>387</v>
       </c>
@@ -6073,7 +5555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>388</v>
       </c>
@@ -6081,7 +5563,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>389</v>
       </c>
@@ -6089,7 +5571,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>390</v>
       </c>
@@ -6097,7 +5579,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>391</v>
       </c>
@@ -6105,7 +5587,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>392</v>
       </c>
@@ -6113,7 +5595,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>393</v>
       </c>
@@ -6121,7 +5603,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>394</v>
       </c>
@@ -6129,7 +5611,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>395</v>
       </c>
@@ -6137,7 +5619,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>396</v>
       </c>
@@ -6145,7 +5627,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>397</v>
       </c>
@@ -6153,7 +5635,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>398</v>
       </c>
@@ -6161,7 +5643,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>399</v>
       </c>
@@ -6169,7 +5651,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>400</v>
       </c>
@@ -6177,7 +5659,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>401</v>
       </c>
@@ -6185,7 +5667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>402</v>
       </c>
@@ -6193,7 +5675,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="177" ht="27.6" spans="1:2">
+    <row r="177" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>403</v>
       </c>
@@ -6201,7 +5683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>404</v>
       </c>
@@ -6209,7 +5691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>405</v>
       </c>
@@ -6217,7 +5699,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>406</v>
       </c>
@@ -6225,7 +5707,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>407</v>
       </c>
@@ -6233,7 +5715,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>408</v>
       </c>
@@ -6241,7 +5723,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>409</v>
       </c>
@@ -6249,7 +5731,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>410</v>
       </c>
@@ -6257,7 +5739,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>411</v>
       </c>
@@ -6265,7 +5747,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>412</v>
       </c>
@@ -6273,7 +5755,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>413</v>
       </c>
@@ -6281,7 +5763,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>414</v>
       </c>
@@ -6289,7 +5771,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>415</v>
       </c>
@@ -6297,7 +5779,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>416</v>
       </c>
@@ -6305,7 +5787,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>417</v>
       </c>
@@ -6313,7 +5795,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>418</v>
       </c>
@@ -6321,7 +5803,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>419</v>
       </c>
@@ -6329,7 +5811,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>420</v>
       </c>
@@ -6337,7 +5819,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>421</v>
       </c>
@@ -6345,7 +5827,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>422</v>
       </c>
@@ -6353,7 +5835,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>424</v>
       </c>
@@ -6361,7 +5843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>425</v>
       </c>
@@ -6369,7 +5851,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>426</v>
       </c>
@@ -6377,7 +5859,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>427</v>
       </c>
@@ -6385,7 +5867,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>428</v>
       </c>
@@ -6393,7 +5875,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>429</v>
       </c>
@@ -6401,7 +5883,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>430</v>
       </c>
@@ -6409,7 +5891,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>431</v>
       </c>
@@ -6417,7 +5899,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>432</v>
       </c>
@@ -6425,7 +5907,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>433</v>
       </c>
@@ -6433,7 +5915,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>434</v>
       </c>
@@ -6441,7 +5923,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>435</v>
       </c>
@@ -6449,7 +5931,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>436</v>
       </c>
@@ -6457,7 +5939,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>437</v>
       </c>
@@ -6465,7 +5947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>438</v>
       </c>
@@ -6473,7 +5955,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>439</v>
       </c>
@@ -6481,7 +5963,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>440</v>
       </c>
@@ -6489,7 +5971,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>441</v>
       </c>
@@ -6497,7 +5979,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>442</v>
       </c>
@@ -6505,7 +5987,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>443</v>
       </c>
@@ -6513,7 +5995,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>444</v>
       </c>
@@ -6521,7 +6003,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>445</v>
       </c>
@@ -6529,7 +6011,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>446</v>
       </c>
@@ -6537,7 +6019,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>447</v>
       </c>
@@ -6545,7 +6027,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>448</v>
       </c>
@@ -6553,7 +6035,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>449</v>
       </c>
@@ -6561,7 +6043,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>450</v>
       </c>
@@ -6569,7 +6051,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>451</v>
       </c>
@@ -6577,7 +6059,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>453</v>
       </c>
@@ -6585,7 +6067,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>454</v>
       </c>
@@ -6593,7 +6075,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>455</v>
       </c>
@@ -6601,7 +6083,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>457</v>
       </c>
@@ -6609,7 +6091,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>458</v>
       </c>
@@ -6617,7 +6099,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>459</v>
       </c>
@@ -6625,7 +6107,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>460</v>
       </c>
@@ -6633,7 +6115,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>462</v>
       </c>
@@ -6641,7 +6123,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>463</v>
       </c>
@@ -6649,7 +6131,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>465</v>
       </c>
@@ -6657,7 +6139,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>466</v>
       </c>
@@ -6665,7 +6147,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>467</v>
       </c>
@@ -6673,7 +6155,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>468</v>
       </c>
@@ -6681,7 +6163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>469</v>
       </c>
@@ -6689,7 +6171,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>470</v>
       </c>
@@ -6697,7 +6179,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>471</v>
       </c>
@@ -6705,7 +6187,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>472</v>
       </c>
@@ -6713,7 +6195,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>473</v>
       </c>
@@ -6721,7 +6203,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>475</v>
       </c>
@@ -6729,7 +6211,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>476</v>
       </c>
@@ -6737,7 +6219,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="245" spans="1:2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>478</v>
       </c>
@@ -6745,7 +6227,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>479</v>
       </c>
@@ -6753,7 +6235,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>480</v>
       </c>
@@ -6761,7 +6243,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>481</v>
       </c>
@@ -6769,7 +6251,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="249" spans="1:2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>482</v>
       </c>
@@ -6777,7 +6259,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="250" spans="1:2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>483</v>
       </c>
@@ -6785,7 +6267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>484</v>
       </c>
@@ -6793,7 +6275,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>485</v>
       </c>
@@ -6801,7 +6283,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="253" spans="1:2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>486</v>
       </c>
@@ -6809,7 +6291,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="254" spans="1:2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>55</v>
       </c>
@@ -6817,7 +6299,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="255" spans="1:2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>487</v>
       </c>
@@ -6825,7 +6307,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>488</v>
       </c>
@@ -6833,7 +6315,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="257" spans="1:2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>489</v>
       </c>
@@ -6841,7 +6323,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="258" spans="1:2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>490</v>
       </c>
@@ -6849,7 +6331,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>491</v>
       </c>
@@ -6857,7 +6339,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>492</v>
       </c>
@@ -6865,7 +6347,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="261" spans="1:2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>493</v>
       </c>
@@ -6873,7 +6355,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="262" spans="1:2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>494</v>
       </c>
@@ -6881,7 +6363,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="263" spans="1:2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>495</v>
       </c>
@@ -6889,7 +6371,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="264" spans="1:2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>496</v>
       </c>
@@ -6898,51 +6380,48 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B264">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:B264" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="A64">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A56 A58:A63 A65:A77 A118:A211 A85:A116 A81:A83">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="76.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="76.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>497</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>498</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>499</v>
       </c>
@@ -6950,7 +6429,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>500</v>
       </c>
@@ -6958,7 +6437,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>501</v>
       </c>
@@ -6966,7 +6445,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>502</v>
       </c>
@@ -6974,7 +6453,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>504</v>
       </c>
@@ -6985,7 +6464,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>506</v>
       </c>
@@ -6996,7 +6475,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>509</v>
       </c>
@@ -7004,7 +6483,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>510</v>
       </c>
@@ -7012,7 +6491,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>512</v>
       </c>
@@ -7020,7 +6499,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>514</v>
       </c>
@@ -7028,7 +6507,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>516</v>
       </c>
@@ -7036,7 +6515,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>518</v>
       </c>
@@ -7044,7 +6523,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>519</v>
       </c>
@@ -7052,7 +6531,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>520</v>
       </c>
@@ -7060,7 +6539,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>521</v>
       </c>
@@ -7068,7 +6547,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>522</v>
       </c>
@@ -7076,7 +6555,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>523</v>
       </c>
@@ -7084,7 +6563,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>524</v>
       </c>
@@ -7092,7 +6571,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>526</v>
       </c>
@@ -7100,7 +6579,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>528</v>
       </c>
@@ -7108,7 +6587,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>529</v>
       </c>
@@ -7116,7 +6595,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>530</v>
       </c>
@@ -7124,7 +6603,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>532</v>
       </c>
@@ -7132,7 +6611,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>533</v>
       </c>
@@ -7140,7 +6619,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>535</v>
       </c>
@@ -7148,7 +6627,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>537</v>
       </c>
@@ -7156,7 +6635,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>538</v>
       </c>
@@ -7164,7 +6643,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>306</v>
       </c>
@@ -7172,7 +6651,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>321</v>
       </c>
@@ -7180,7 +6659,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>540</v>
       </c>
@@ -7188,7 +6667,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>542</v>
       </c>
@@ -7196,7 +6675,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>386</v>
       </c>
@@ -7204,7 +6683,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>401</v>
       </c>
@@ -7212,7 +6691,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>543</v>
       </c>
@@ -7220,7 +6699,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>413</v>
       </c>
@@ -7228,7 +6707,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>421</v>
       </c>
@@ -7236,7 +6715,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>444</v>
       </c>
@@ -7244,7 +6723,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>546</v>
       </c>
@@ -7252,7 +6731,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>491</v>
       </c>
@@ -7261,639 +6740,727 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="11.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="62.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="11.625" customWidth="1"/>
+    <col min="4" max="4" width="98.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>591</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="D1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1"/>
+      <c r="C1" s="24" t="s">
+        <v>594</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1"/>
+        <v>549</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
+        <v>550</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1"/>
+        <v>548</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1"/>
+        <v>553</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1"/>
+        <v>554</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1"/>
+        <v>555</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1"/>
+        <v>556</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1"/>
+        <v>557</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1"/>
+        <v>558</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1"/>
+        <v>559</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1"/>
+        <v>560</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1"/>
+        <v>561</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1"/>
+        <v>562</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1"/>
+        <v>563</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1"/>
+        <v>564</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1"/>
+        <v>565</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D19" s="2">
         <v>13558700736</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1"/>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C21" t="s">
+        <v>568</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="C21" t="s">
-        <v>570</v>
-      </c>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="2:4">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>2</v>
+      </c>
       <c r="B23" s="1"/>
       <c r="C23" s="3" t="s">
         <v>550</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>3</v>
+      </c>
       <c r="B24" s="1"/>
       <c r="C24" s="3" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>4</v>
+      </c>
       <c r="B25" s="1"/>
       <c r="C25" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
+      <c r="D25" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>5</v>
+      </c>
       <c r="B26" s="1"/>
       <c r="C26" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="D26" s="4">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
+        <v>548</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>6</v>
+      </c>
       <c r="B27" s="1"/>
       <c r="C27" s="3" t="s">
         <v>550</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>7</v>
+      </c>
       <c r="B28" s="1"/>
       <c r="C28" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>8</v>
+      </c>
       <c r="B29" s="1"/>
       <c r="C29" s="3" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>9</v>
+      </c>
       <c r="B30" s="1"/>
       <c r="C30" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>10</v>
+      </c>
       <c r="B31" s="1"/>
       <c r="C31" s="3" t="s">
         <v>550</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>11</v>
+      </c>
       <c r="B32" s="1"/>
       <c r="C32" s="3" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>12</v>
+      </c>
       <c r="B33" s="1"/>
       <c r="C33" s="3" t="s">
         <v>550</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>13</v>
+      </c>
       <c r="B34" s="1"/>
       <c r="C34" s="3" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>14</v>
+      </c>
       <c r="B35" s="1"/>
       <c r="C35" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>15</v>
+      </c>
       <c r="B36" s="1"/>
       <c r="C36" s="3" t="s">
         <v>550</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>16</v>
+      </c>
       <c r="B37" s="1"/>
       <c r="C37" s="3" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>17</v>
+      </c>
       <c r="B38" s="1"/>
       <c r="C38" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>18</v>
+      </c>
       <c r="B39" s="1"/>
       <c r="C39" s="3" t="s">
         <v>550</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>19</v>
+      </c>
       <c r="B40" s="1"/>
       <c r="C40" s="3" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="D40" s="3" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B41" s="3" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="41" spans="2:4">
-      <c r="B41" s="1"/>
-      <c r="C41" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4">
-      <c r="B42" s="3" t="s">
-        <v>589</v>
-      </c>
-      <c r="C42" t="s">
-        <v>570</v>
-      </c>
-      <c r="D42" s="3"/>
+      <c r="C41" t="s">
+        <v>568</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>595</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D21">
-    <extLst/>
-  </autoFilter>
-  <conditionalFormatting sqref="C1 D18:D22 D2:D16">
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+  <autoFilter ref="A1:D21" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <conditionalFormatting sqref="C1 D18:D21 D2:D16">
+    <cfRule type="duplicateValues" dxfId="5" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1 D2:D22">
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+  <conditionalFormatting sqref="C1 D2:D21">
+    <cfRule type="duplicateValues" dxfId="4" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="14"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="65.2222222222222" customWidth="1"/>
+    <col min="3" max="3" width="65.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C12" s="2">
         <v>13558700736</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C12">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:C12" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="C2:C12">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>